--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D6DCCF6-5B86-41AF-8922-5D53A578D1EC}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4142C80-8C21-448C-938C-39087FE82DC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataPrep_Table2a" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Main tab</t>
   </si>
@@ -136,13 +137,137 @@
   </si>
   <si>
     <t>ContDataQC is continually being improved; this page provides a status report and 'wish list' items that will be addressed as resources permit</t>
+  </si>
+  <si>
+    <t>Folder name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data0_Original </t>
+  </si>
+  <si>
+    <t>For files that are exported out of the sensor software (like HOBOWare) that need to be reformatted before they can be run through the ContDataQC R package.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data1_RAW </t>
+  </si>
+  <si>
+    <t>For formatted .csv files that are ready to run through the QC function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data2_QC </t>
+  </si>
+  <si>
+    <t>After you run the QC function, put the QC reports into this folder. Make corrections to the .csv QC files as needed. When you run the Aggregate function, you will use the QC’d data files from this folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data3_Aggregated </t>
+  </si>
+  <si>
+    <t>After you run the Aggregate function to combine the QC’d data files, put the output files into this folder. When you run the SummaryStats function, you will use the aggregated data files from this folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data4_Stats </t>
+  </si>
+  <si>
+    <t>After you run the SummaryStats function, put the output files into this folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldForms </t>
+  </si>
+  <si>
+    <t>Observations from site visits are very important for the QC process as they can provide clues as to why erroneous measurements or changes may have occurred (e.g., had to move sensor, sensor out of water, sensor buried in sediment, vandalism).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_situ </t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>If you are overrun with raw files that are not named consistently and are poorly organized (for example, sometimes files are saved multiple times with different names and in different folders), RMN partners have found it helpful to put all the raw files for a site into one folder, inventory what they have, and then sort them into the appropriate folders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos </t>
+  </si>
+  <si>
+    <t>RMN protocols call for taking photos from the same locations during each site visit. Photographs are important for relocating the sensors and documenting changes to the monitoring location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_ConfigurationFiles </t>
+  </si>
+  <si>
+    <t>Creating a customized configuration file (or files) for a site allows you to adjust QC test thresholds, make changes to units and plot labels, and more. Under the 'QC Thresholds' tab, you can upload a customized configuration file. If the file is stored in this folder, it will be easy to find. The customized file needs to be uploaded before running the QC function, otherwise the default settings will be used.</t>
+  </si>
+  <si>
+    <t>SensorFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We recommend retaining original sensor files in case you need to go back and regenerate certain data (e.g., with HOBO sensors, sometimes people go back and rerun sensor depth with reference water level measurements). In some situations, it may be helpful to add subfolders for each sensor type (for example, with lakes, there may be many temperature files mixed in with DO and water level files; in these cases, it may be easier to find files if you create subfolders for temperature, DO and water level). </t>
+  </si>
+  <si>
+    <t>USGSgage</t>
+  </si>
+  <si>
+    <t>If there is a nearby, representative USGS gage, we recommend comparing your sensor data to the USGS gage data as an additional QC check.</t>
+  </si>
+  <si>
+    <t>WxStation</t>
+  </si>
+  <si>
+    <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An important QC check (which we call an 'accuracy check') involves comparing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in situ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> measurements taken during site visits to the closest sensor measurement(s). We ask that RMN partners keep an accuracy check worksheet in this folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[(click here to download an example worksheet).](https://github.com/leppott/ContDataQC/tree/dev_shinymods/Documents/Organizing_Files)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +286,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,6 +428,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,18 +721,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="246.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="246.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -601,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -612,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -621,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -630,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -641,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -650,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -661,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -670,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -679,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -688,7 +839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -697,7 +848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
@@ -708,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -717,7 +868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -726,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -744,4 +895,135 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4142C80-8C21-448C-938C-39087FE82DC8}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69AAD200-F334-4E46-B7E3-2C837B3F4908}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
     <sheet name="DataPrep_Table2a" sheetId="2" r:id="rId2"/>
+    <sheet name="DataPrep_Table2c" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Main tab</t>
   </si>
@@ -262,6 +263,146 @@
       <t>[(click here to download an example worksheet).](https://github.com/leppott/ContDataQC/tree/dev_shinymods/Documents/Organizing_Files)</t>
     </r>
   </si>
+  <si>
+    <t>Column headings</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>character (numeric or text)</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>“Date Time” (one field) OR “Date” AND “Time” (in 2 separate fields) OR all 3 (in 3 fields); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
+  </si>
+  <si>
+    <t>As available</t>
+  </si>
+  <si>
+    <t>Air Temp C</t>
+  </si>
+  <si>
+    <t>Water Temp C</t>
+  </si>
+  <si>
+    <t>Air BP psi</t>
+  </si>
+  <si>
+    <t>barometric pressure (BP)</t>
+  </si>
+  <si>
+    <t>Water P psi</t>
+  </si>
+  <si>
+    <t>water pressure (P)</t>
+  </si>
+  <si>
+    <t>Sensor Depth ft</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">differs from Water Level in that it is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generated with a reference water level measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>Water Level ft</t>
+  </si>
+  <si>
+    <t>generated with a reference water level (which relates water level to a fixed point)</t>
+  </si>
+  <si>
+    <t>Discharge ft3/s</t>
+  </si>
+  <si>
+    <t>Conductivity uS/cm</t>
+  </si>
+  <si>
+    <t>DO mg/L</t>
+  </si>
+  <si>
+    <t>DO adj mg/L</t>
+  </si>
+  <si>
+    <t>DO adjusted for salinity (HOBOware)</t>
+  </si>
+  <si>
+    <t>DO pctsat %</t>
+  </si>
+  <si>
+    <t>% saturation</t>
+  </si>
+  <si>
+    <t>pH SU</t>
+  </si>
+  <si>
+    <t>Turbidity NTU</t>
+  </si>
+  <si>
+    <t>Chlorophylla g/cm3</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Air LoggerID</t>
+  </si>
+  <si>
+    <t>unique identifier (e.g., serial number)</t>
+  </si>
+  <si>
+    <t>Water LoggerID</t>
+  </si>
+  <si>
+    <t>Water RowID</t>
+  </si>
+  <si>
+    <t>sequential number (1=first measurement; largest number = last measurement)</t>
+  </si>
+  <si>
+    <t>Air RowID</t>
+  </si>
+  <si>
+    <t>Discrete Water Temp C</t>
+  </si>
+  <si>
+    <t>Discrete (in situ) measurements can be entered into the row of the CSV file where the date/time of the sensor measurement most closely matches with the date/time of the field measurement; the data point(s) will be overlaid onto the time series plot in the QC report so that the user can visually check the correspondence between the two. Discrete entries can be made for any of the parameters listed above (not just temperature and water level)</t>
+  </si>
+  <si>
+    <t>Discrete Air Temp C</t>
+  </si>
+  <si>
+    <t>Discrete Water Level ft</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -404,30 +551,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +562,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +910,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -764,7 +921,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -773,7 +930,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -782,7 +939,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -793,7 +950,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -802,7 +959,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -813,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -822,7 +979,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -849,7 +1006,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -860,7 +1017,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -901,129 +1058,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.77734375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69AAD200-F334-4E46-B7E3-2C837B3F4908}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82693B09-97CA-4BF4-9589-35ACB7755873}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
     <sheet name="DataPrep_Table2a" sheetId="2" r:id="rId2"/>
     <sheet name="DataPrep_Table2c" sheetId="3" r:id="rId3"/>
+    <sheet name="QCThresh_Table3a1" sheetId="4" r:id="rId4"/>
+    <sheet name="QCThresh_Table3a2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
   <si>
     <t>Main tab</t>
   </si>
@@ -403,12 +405,255 @@
   <si>
     <t>Discrete Water Level ft</t>
   </si>
+  <si>
+    <t>Flag Test</t>
+  </si>
+  <si>
+    <t>Unrealistic values (‘Gross range’)</t>
+  </si>
+  <si>
+    <t>Entries are flagged if values are above or below upper and lower limits</t>
+  </si>
+  <si>
+    <t>Spikes</t>
+  </si>
+  <si>
+    <t>Entries are flagged if adjacent points change by more than ‘x’ amount</t>
+  </si>
+  <si>
+    <t>Rate of change (RoC)</t>
+  </si>
+  <si>
+    <t>Entries are flagged if the RoC exceeds a given threshold (e.g., ≥ 3 st dev within 25 hrs)</t>
+  </si>
+  <si>
+    <t>Flat line</t>
+  </si>
+  <si>
+    <t>Entries are flagged if a certain number of consecutive measurements are within a certain amount of each other (e.g., &gt;10 consecutive temperature measurements are within 0.01 degrees C of one another)</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Rate of Change</t>
+  </si>
+  <si>
+    <t>Flat Line</t>
+  </si>
+  <si>
+    <t>Temperature, Water</t>
+  </si>
+  <si>
+    <t>deg C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>&gt;30 or &lt;-2</t>
+  </si>
+  <si>
+    <t>≥1.5 (±)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>&gt;30 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Suspect</t>
+  </si>
+  <si>
+    <t>&gt;25 or &lt;-0.1</t>
+  </si>
+  <si>
+    <t>≥1.0 (±)</t>
+  </si>
+  <si>
+    <t>≥3 stdev within 25 hrs</t>
+  </si>
+  <si>
+    <t>&gt;20 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Temperature, Air</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>&gt;38 or &lt;-25</t>
+  </si>
+  <si>
+    <t>≥10 (±)</t>
+  </si>
+  <si>
+    <t>&gt;35 or &lt;-23</t>
+  </si>
+  <si>
+    <t>≥8 (±)</t>
+  </si>
+  <si>
+    <t>&gt;15 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Sensor Depth or Water Level</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>&gt; 10^5 or &lt; -1</t>
+  </si>
+  <si>
+    <t>≥5  (±)</t>
+  </si>
+  <si>
+    <t>&gt;60 consecutive measurements within 0 units of one another</t>
+  </si>
+  <si>
+    <t>&gt; 1000 or &lt; 1</t>
+  </si>
+  <si>
+    <t>≥3  (±)</t>
+  </si>
+  <si>
+    <t>&gt;20 consecutive measurements within 0 units of one another</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>ft3/s</t>
+  </si>
+  <si>
+    <t>≥10^4  (±)</t>
+  </si>
+  <si>
+    <t>&gt; 60 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>≥10^3  (±)</t>
+  </si>
+  <si>
+    <t>&gt; 30 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>&gt; 20 or &lt; 1</t>
+  </si>
+  <si>
+    <t>&gt;= 10 (±)</t>
+  </si>
+  <si>
+    <t>&gt; 18 or &lt; 2</t>
+  </si>
+  <si>
+    <t>&gt;= 5 (±)</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>&gt; 1500 or &lt; 10</t>
+  </si>
+  <si>
+    <t>&gt;1200 or &lt; 20</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>&gt; 12 or &lt; 3</t>
+  </si>
+  <si>
+    <t>&gt; 11 or &lt; 4</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>&gt; 1000 or &lt; -1</t>
+  </si>
+  <si>
+    <t>Pressure, Water</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;17  or &lt;13 </t>
+  </si>
+  <si>
+    <t>≥0.7  (±)</t>
+  </si>
+  <si>
+    <t>&gt;15 consecutive measurements within 0.001 units of one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;16.8  or &lt;13.5 </t>
+  </si>
+  <si>
+    <t>≥0.5  (±)</t>
+  </si>
+  <si>
+    <t>&gt;10 consecutive measurements within 0.001 units of one another</t>
+  </si>
+  <si>
+    <t>Barometric Pressure, Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;15  or &lt;13 </t>
+  </si>
+  <si>
+    <t>≥0.25  (±)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;14.8  or &lt;13 </t>
+  </si>
+  <si>
+    <t>≥0.15  (±)</t>
+  </si>
+  <si>
+    <t>Chlorophyll a</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +687,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -562,6 +813,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,14 +841,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,7 +1194,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -921,7 +1205,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -930,7 +1214,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -939,7 +1223,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -950,7 +1234,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -959,7 +1243,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -970,7 +1254,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -979,7 +1263,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1290,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1017,7 +1301,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1189,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1201,18 +1485,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1223,16 +1507,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
@@ -1240,13 +1524,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -1255,7 +1539,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>76</v>
       </c>
@@ -1264,7 +1548,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>78</v>
       </c>
@@ -1273,7 +1557,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1282,25 +1566,25 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>85</v>
       </c>
@@ -1309,7 +1593,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" t="s">
         <v>87</v>
       </c>
@@ -1318,59 +1602,59 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
         <v>99</v>
       </c>
@@ -1379,14 +1663,14 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="8" t="s">
         <v>102</v>
       </c>
@@ -1403,4 +1687,596 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7288373-689A-4333-888E-9BEE47116881}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="170.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83F796-74F9-475E-BD35-3C720D0E40EF}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82693B09-97CA-4BF4-9589-35ACB7755873}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42B4A4E6-2548-45D0-AD39-4BBAD99CD69A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DataPrep_Table2c" sheetId="3" r:id="rId3"/>
     <sheet name="QCThresh_Table3a1" sheetId="4" r:id="rId4"/>
     <sheet name="QCThresh_Table3a2" sheetId="5" r:id="rId5"/>
+    <sheet name="TestData_Table7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
   <si>
     <t>Main tab</t>
   </si>
@@ -647,6 +648,69 @@
   </si>
   <si>
     <t>g/cm3</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Waterbody type</t>
+  </si>
+  <si>
+    <t>Parameter(s)</t>
+  </si>
+  <si>
+    <t>Sensor type</t>
+  </si>
+  <si>
+    <t>Data description</t>
+  </si>
+  <si>
+    <t>Hunting_AWTemp</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Water and air temperature</t>
+  </si>
+  <si>
+    <t>Onset HOBO U22 (Pro v2)</t>
+  </si>
+  <si>
+    <t>Air and water temperature were collected with separate sensors but brought together into one file in HOBOware</t>
+  </si>
+  <si>
+    <t>QB283_AWTempWaterLevel</t>
+  </si>
+  <si>
+    <t>Water and air temperature, water and air pressure, water level</t>
+  </si>
+  <si>
+    <t>Onset HOBO U20</t>
+  </si>
+  <si>
+    <t>Data from two non vented pressure transducers (one on land, one in the water) were brought together in HOBOware Pro to generate water level</t>
+  </si>
+  <si>
+    <t>RUSS_WTempMultiDepth</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Water temperature</t>
+  </si>
+  <si>
+    <t>Temperature sensors were deployed throughout the water column (at 1-m intervals). This dataset include temperature data for multiple depths</t>
+  </si>
+  <si>
+    <t>RUSS_DO</t>
+  </si>
+  <si>
+    <t>Onset HOBO U26</t>
+  </si>
+  <si>
+    <t>DO sensor data for a single depth</t>
   </si>
 </sst>
 </file>
@@ -782,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -817,6 +881,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -847,38 +938,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,7 +1261,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1205,7 +1272,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1281,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1290,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1234,7 +1301,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1310,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1254,7 +1321,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1263,7 +1330,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1357,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1301,7 +1368,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1563,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1507,7 +1574,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>69</v>
       </c>
@@ -1516,7 +1583,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
@@ -1524,13 +1591,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -1539,7 +1606,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="31"/>
       <c r="B7" t="s">
         <v>76</v>
       </c>
@@ -1548,7 +1615,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="31"/>
       <c r="B8" t="s">
         <v>78</v>
       </c>
@@ -1557,7 +1624,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="31"/>
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1566,25 +1633,25 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="31"/>
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="31"/>
       <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="31"/>
       <c r="B12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="31"/>
       <c r="B13" t="s">
         <v>85</v>
       </c>
@@ -1593,7 +1660,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="31"/>
       <c r="B14" t="s">
         <v>87</v>
       </c>
@@ -1602,79 +1669,79 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="31"/>
       <c r="B15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="31"/>
       <c r="B16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="31"/>
       <c r="B17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1704,10 +1771,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1720,7 +1787,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1728,7 +1795,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1736,7 +1803,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1752,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83F796-74F9-475E-BD35-3C720D0E40EF}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1768,492 +1835,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="22" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2264,19 +2343,114 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3037767D-11B9-4D55-B076-80CDB032F77C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="120.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42B4A4E6-2548-45D0-AD39-4BBAD99CD69A}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{678F0D11-7889-4DE0-B8FD-CBD6D2932B3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="202">
   <si>
     <t>Main tab</t>
   </si>
@@ -89,21 +89,12 @@
     <t>Run functions</t>
   </si>
   <si>
-    <t>Drop-down menus for running the three main functions: QCRaw (which generates QC reports), Aggregate (which merges QC'd data files from the same site and different time periods together) and SummaryStats (which generates summary statistics and time series plots)</t>
-  </si>
-  <si>
     <t>Check input file</t>
   </si>
   <si>
     <t>Summary table showing what parameters are in the uploaded files; user should ensure all the desired parameters are present</t>
   </si>
   <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Examples of QC reports, aggregated data files and SummaryStats outputs</t>
-  </si>
-  <si>
     <t>Download USGS gage data</t>
   </si>
   <si>
@@ -119,18 +110,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Streams</t>
-  </si>
-  <si>
-    <t>Test data files for streams (temperature, sensor depth, water level, water pressure, barometric pressure); sensors are deployed at a single depth at each site</t>
-  </si>
-  <si>
-    <t>Lakes</t>
-  </si>
-  <si>
-    <t>Test data files for lakes (temperature, DO and water level); sensors are deployed at multiple depths at each site</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>ContDataQC is continually being improved; this page provides a status report and 'wish list' items that will be addressed as resources permit</t>
   </si>
   <si>
     <t>Folder name</t>
@@ -711,6 +687,21 @@
   </si>
   <si>
     <t>DO sensor data for a single depth</t>
+  </si>
+  <si>
+    <t>HOBOware Reformat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function will automatically reformat CSV files for HOBO sensors so that they are ready to run through the QC function. In order for this function to work, users must follow specific formatting instructions when they export CSV files from HOBOware. </t>
+  </si>
+  <si>
+    <t>Run the three main functions: QCRaw (which generates QC reports), Aggregate (which merges QC'd data files from the same site and different time periods together) and SummaryStats (which generates summary statistics and time series plots). Includes instructions and examples of QC reports, aggregated data files and SummaryStats outputs.</t>
+  </si>
+  <si>
+    <t>Repository for test data files. There are two sets of folders: one with test data that can be run through the Shiny app or R package; the other with complete sets of outputs for each of the Test datasets so that the user can verify that the outputs that they generated during their test run(s) were complete.</t>
+  </si>
+  <si>
+    <t>ContDataQC is continually being improved; this page provides a status report and list of items that will be added as resources permit</t>
   </si>
 </sst>
 </file>
@@ -782,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -826,16 +817,36 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -846,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -908,29 +919,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -944,8 +934,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,20 +1235,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="246.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1259,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
@@ -1260,8 +1268,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1271,8 +1279,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1280,8 +1288,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1289,118 +1297,101 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
+      <c r="C15" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1413,122 +1404,122 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.77734375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1544,204 +1535,204 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="8" t="s">
+      <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" t="s">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" t="s">
+      <c r="B18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" t="s">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" t="s">
+      <c r="C20" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" t="s">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" t="s">
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="C22" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="32"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1764,50 +1755,50 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="170.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="170.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1823,516 +1814,504 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="18" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="D3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="E3" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="G3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="20" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="B4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="F4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="21" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="B6" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="C6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="19" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="D8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="E9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="19" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="D18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="F23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2343,6 +2322,18 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2352,102 +2343,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3037767D-11B9-4D55-B076-80CDB032F77C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="120.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="120.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="E2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="35" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="B3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="D3" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="E3" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E5" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{678F0D11-7889-4DE0-B8FD-CBD6D2932B3F}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{510F0A4E-DF69-422F-8D6F-F3A70589B038}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -195,6 +195,467 @@
   </si>
   <si>
     <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.</t>
+  </si>
+  <si>
+    <t>Column headings</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>character (numeric or text)</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>“Date Time” (one field) OR “Date” AND “Time” (in 2 separate fields) OR all 3 (in 3 fields); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
+  </si>
+  <si>
+    <t>As available</t>
+  </si>
+  <si>
+    <t>Air Temp C</t>
+  </si>
+  <si>
+    <t>Water Temp C</t>
+  </si>
+  <si>
+    <t>Air BP psi</t>
+  </si>
+  <si>
+    <t>barometric pressure (BP)</t>
+  </si>
+  <si>
+    <t>Water P psi</t>
+  </si>
+  <si>
+    <t>water pressure (P)</t>
+  </si>
+  <si>
+    <t>Sensor Depth ft</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">differs from Water Level in that it is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generated with a reference water level measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>Water Level ft</t>
+  </si>
+  <si>
+    <t>generated with a reference water level (which relates water level to a fixed point)</t>
+  </si>
+  <si>
+    <t>Discharge ft3/s</t>
+  </si>
+  <si>
+    <t>Conductivity uS/cm</t>
+  </si>
+  <si>
+    <t>DO mg/L</t>
+  </si>
+  <si>
+    <t>DO adj mg/L</t>
+  </si>
+  <si>
+    <t>DO adjusted for salinity (HOBOware)</t>
+  </si>
+  <si>
+    <t>DO pctsat %</t>
+  </si>
+  <si>
+    <t>% saturation</t>
+  </si>
+  <si>
+    <t>pH SU</t>
+  </si>
+  <si>
+    <t>Turbidity NTU</t>
+  </si>
+  <si>
+    <t>Chlorophylla g/cm3</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Air LoggerID</t>
+  </si>
+  <si>
+    <t>unique identifier (e.g., serial number)</t>
+  </si>
+  <si>
+    <t>Water LoggerID</t>
+  </si>
+  <si>
+    <t>Water RowID</t>
+  </si>
+  <si>
+    <t>sequential number (1=first measurement; largest number = last measurement)</t>
+  </si>
+  <si>
+    <t>Air RowID</t>
+  </si>
+  <si>
+    <t>Discrete Water Temp C</t>
+  </si>
+  <si>
+    <t>Discrete (in situ) measurements can be entered into the row of the CSV file where the date/time of the sensor measurement most closely matches with the date/time of the field measurement; the data point(s) will be overlaid onto the time series plot in the QC report so that the user can visually check the correspondence between the two. Discrete entries can be made for any of the parameters listed above (not just temperature and water level)</t>
+  </si>
+  <si>
+    <t>Discrete Air Temp C</t>
+  </si>
+  <si>
+    <t>Discrete Water Level ft</t>
+  </si>
+  <si>
+    <t>Flag Test</t>
+  </si>
+  <si>
+    <t>Unrealistic values (‘Gross range’)</t>
+  </si>
+  <si>
+    <t>Entries are flagged if values are above or below upper and lower limits</t>
+  </si>
+  <si>
+    <t>Spikes</t>
+  </si>
+  <si>
+    <t>Entries are flagged if adjacent points change by more than ‘x’ amount</t>
+  </si>
+  <si>
+    <t>Rate of change (RoC)</t>
+  </si>
+  <si>
+    <t>Entries are flagged if the RoC exceeds a given threshold (e.g., ≥ 3 st dev within 25 hrs)</t>
+  </si>
+  <si>
+    <t>Flat line</t>
+  </si>
+  <si>
+    <t>Entries are flagged if a certain number of consecutive measurements are within a certain amount of each other (e.g., &gt;10 consecutive temperature measurements are within 0.01 degrees C of one another)</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Rate of Change</t>
+  </si>
+  <si>
+    <t>Flat Line</t>
+  </si>
+  <si>
+    <t>Temperature, Water</t>
+  </si>
+  <si>
+    <t>deg C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>&gt;30 or &lt;-2</t>
+  </si>
+  <si>
+    <t>≥1.5 (±)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>&gt;30 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Suspect</t>
+  </si>
+  <si>
+    <t>&gt;25 or &lt;-0.1</t>
+  </si>
+  <si>
+    <t>≥1.0 (±)</t>
+  </si>
+  <si>
+    <t>≥3 stdev within 25 hrs</t>
+  </si>
+  <si>
+    <t>&gt;20 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Temperature, Air</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>&gt;38 or &lt;-25</t>
+  </si>
+  <si>
+    <t>≥10 (±)</t>
+  </si>
+  <si>
+    <t>&gt;35 or &lt;-23</t>
+  </si>
+  <si>
+    <t>≥8 (±)</t>
+  </si>
+  <si>
+    <t>&gt;15 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Sensor Depth or Water Level</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>&gt; 10^5 or &lt; -1</t>
+  </si>
+  <si>
+    <t>≥5  (±)</t>
+  </si>
+  <si>
+    <t>&gt;60 consecutive measurements within 0 units of one another</t>
+  </si>
+  <si>
+    <t>&gt; 1000 or &lt; 1</t>
+  </si>
+  <si>
+    <t>≥3  (±)</t>
+  </si>
+  <si>
+    <t>&gt;20 consecutive measurements within 0 units of one another</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>ft3/s</t>
+  </si>
+  <si>
+    <t>≥10^4  (±)</t>
+  </si>
+  <si>
+    <t>&gt; 60 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>≥10^3  (±)</t>
+  </si>
+  <si>
+    <t>&gt; 30 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>&gt; 20 or &lt; 1</t>
+  </si>
+  <si>
+    <t>&gt;= 10 (±)</t>
+  </si>
+  <si>
+    <t>&gt; 18 or &lt; 2</t>
+  </si>
+  <si>
+    <t>&gt;= 5 (±)</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>&gt; 1500 or &lt; 10</t>
+  </si>
+  <si>
+    <t>&gt;1200 or &lt; 20</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>&gt; 12 or &lt; 3</t>
+  </si>
+  <si>
+    <t>&gt; 11 or &lt; 4</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>&gt; 1000 or &lt; -1</t>
+  </si>
+  <si>
+    <t>Pressure, Water</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;17  or &lt;13 </t>
+  </si>
+  <si>
+    <t>≥0.7  (±)</t>
+  </si>
+  <si>
+    <t>&gt;15 consecutive measurements within 0.001 units of one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;16.8  or &lt;13.5 </t>
+  </si>
+  <si>
+    <t>≥0.5  (±)</t>
+  </si>
+  <si>
+    <t>&gt;10 consecutive measurements within 0.001 units of one another</t>
+  </si>
+  <si>
+    <t>Barometric Pressure, Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;15  or &lt;13 </t>
+  </si>
+  <si>
+    <t>≥0.25  (±)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;14.8  or &lt;13 </t>
+  </si>
+  <si>
+    <t>≥0.15  (±)</t>
+  </si>
+  <si>
+    <t>Chlorophyll a</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Waterbody type</t>
+  </si>
+  <si>
+    <t>Parameter(s)</t>
+  </si>
+  <si>
+    <t>Sensor type</t>
+  </si>
+  <si>
+    <t>Data description</t>
+  </si>
+  <si>
+    <t>Hunting_AWTemp</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Water and air temperature</t>
+  </si>
+  <si>
+    <t>Onset HOBO U22 (Pro v2)</t>
+  </si>
+  <si>
+    <t>Air and water temperature were collected with separate sensors but brought together into one file in HOBOware</t>
+  </si>
+  <si>
+    <t>QB283_AWTempWaterLevel</t>
+  </si>
+  <si>
+    <t>Water and air temperature, water and air pressure, water level</t>
+  </si>
+  <si>
+    <t>Onset HOBO U20</t>
+  </si>
+  <si>
+    <t>Data from two non vented pressure transducers (one on land, one in the water) were brought together in HOBOware Pro to generate water level</t>
+  </si>
+  <si>
+    <t>RUSS_WTempMultiDepth</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Water temperature</t>
+  </si>
+  <si>
+    <t>Temperature sensors were deployed throughout the water column (at 1-m intervals). This dataset include temperature data for multiple depths</t>
+  </si>
+  <si>
+    <t>RUSS_DO</t>
+  </si>
+  <si>
+    <t>Onset HOBO U26</t>
+  </si>
+  <si>
+    <t>DO sensor data for a single depth</t>
+  </si>
+  <si>
+    <t>HOBOware Reformat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function will automatically reformat CSV files for HOBO sensors so that they are ready to run through the QC function. In order for this function to work, users must follow specific formatting instructions when they export CSV files from HOBOware. </t>
+  </si>
+  <si>
+    <t>Run the three main functions: QCRaw (which generates QC reports), Aggregate (which merges QC'd data files from the same site and different time periods together) and SummaryStats (which generates summary statistics and time series plots). Includes instructions and examples of QC reports, aggregated data files and SummaryStats outputs.</t>
+  </si>
+  <si>
+    <t>Repository for test data files. There are two sets of folders: one with test data that can be run through the Shiny app or R package; the other with complete sets of outputs for each of the Test datasets so that the user can verify that the outputs that they generated during their test run(s) were complete.</t>
+  </si>
+  <si>
+    <t>ContDataQC is continually being improved; this page provides a status report and list of items that will be added as resources permit</t>
   </si>
   <si>
     <r>
@@ -239,469 +700,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[(click here to download an example worksheet).](https://github.com/leppott/ContDataQC/tree/dev_shinymods/Documents/Organizing_Files)</t>
+      <t>[(click here to download an example worksheet).](https://github.com/Blocktt/ShinyAppDocuments/tree/main/ContDataQC/Organizing_Files)</t>
     </r>
-  </si>
-  <si>
-    <t>Column headings</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>SiteID</t>
-  </si>
-  <si>
-    <t>character (numeric or text)</t>
-  </si>
-  <si>
-    <t>Date Time</t>
-  </si>
-  <si>
-    <t>“Date Time” (one field) OR “Date” AND “Time” (in 2 separate fields) OR all 3 (in 3 fields); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
-  </si>
-  <si>
-    <t>As available</t>
-  </si>
-  <si>
-    <t>Air Temp C</t>
-  </si>
-  <si>
-    <t>Water Temp C</t>
-  </si>
-  <si>
-    <t>Air BP psi</t>
-  </si>
-  <si>
-    <t>barometric pressure (BP)</t>
-  </si>
-  <si>
-    <t>Water P psi</t>
-  </si>
-  <si>
-    <t>water pressure (P)</t>
-  </si>
-  <si>
-    <t>Sensor Depth ft</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">differs from Water Level in that it is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> generated with a reference water level measurement</t>
-    </r>
-  </si>
-  <si>
-    <t>Water Level ft</t>
-  </si>
-  <si>
-    <t>generated with a reference water level (which relates water level to a fixed point)</t>
-  </si>
-  <si>
-    <t>Discharge ft3/s</t>
-  </si>
-  <si>
-    <t>Conductivity uS/cm</t>
-  </si>
-  <si>
-    <t>DO mg/L</t>
-  </si>
-  <si>
-    <t>DO adj mg/L</t>
-  </si>
-  <si>
-    <t>DO adjusted for salinity (HOBOware)</t>
-  </si>
-  <si>
-    <t>DO pctsat %</t>
-  </si>
-  <si>
-    <t>% saturation</t>
-  </si>
-  <si>
-    <t>pH SU</t>
-  </si>
-  <si>
-    <t>Turbidity NTU</t>
-  </si>
-  <si>
-    <t>Chlorophylla g/cm3</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Air LoggerID</t>
-  </si>
-  <si>
-    <t>unique identifier (e.g., serial number)</t>
-  </si>
-  <si>
-    <t>Water LoggerID</t>
-  </si>
-  <si>
-    <t>Water RowID</t>
-  </si>
-  <si>
-    <t>sequential number (1=first measurement; largest number = last measurement)</t>
-  </si>
-  <si>
-    <t>Air RowID</t>
-  </si>
-  <si>
-    <t>Discrete Water Temp C</t>
-  </si>
-  <si>
-    <t>Discrete (in situ) measurements can be entered into the row of the CSV file where the date/time of the sensor measurement most closely matches with the date/time of the field measurement; the data point(s) will be overlaid onto the time series plot in the QC report so that the user can visually check the correspondence between the two. Discrete entries can be made for any of the parameters listed above (not just temperature and water level)</t>
-  </si>
-  <si>
-    <t>Discrete Air Temp C</t>
-  </si>
-  <si>
-    <t>Discrete Water Level ft</t>
-  </si>
-  <si>
-    <t>Flag Test</t>
-  </si>
-  <si>
-    <t>Unrealistic values (‘Gross range’)</t>
-  </si>
-  <si>
-    <t>Entries are flagged if values are above or below upper and lower limits</t>
-  </si>
-  <si>
-    <t>Spikes</t>
-  </si>
-  <si>
-    <t>Entries are flagged if adjacent points change by more than ‘x’ amount</t>
-  </si>
-  <si>
-    <t>Rate of change (RoC)</t>
-  </si>
-  <si>
-    <t>Entries are flagged if the RoC exceeds a given threshold (e.g., ≥ 3 st dev within 25 hrs)</t>
-  </si>
-  <si>
-    <t>Flat line</t>
-  </si>
-  <si>
-    <t>Entries are flagged if a certain number of consecutive measurements are within a certain amount of each other (e.g., &gt;10 consecutive temperature measurements are within 0.01 degrees C of one another)</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Rate of Change</t>
-  </si>
-  <si>
-    <t>Flat Line</t>
-  </si>
-  <si>
-    <t>Temperature, Water</t>
-  </si>
-  <si>
-    <t>deg C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail </t>
-  </si>
-  <si>
-    <t>&gt;30 or &lt;-2</t>
-  </si>
-  <si>
-    <t>≥1.5 (±)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>&gt;30 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
-    <t>Suspect</t>
-  </si>
-  <si>
-    <t>&gt;25 or &lt;-0.1</t>
-  </si>
-  <si>
-    <t>≥1.0 (±)</t>
-  </si>
-  <si>
-    <t>≥3 stdev within 25 hrs</t>
-  </si>
-  <si>
-    <t>&gt;20 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
-    <t>Temperature, Air</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>&gt;38 or &lt;-25</t>
-  </si>
-  <si>
-    <t>≥10 (±)</t>
-  </si>
-  <si>
-    <t>&gt;35 or &lt;-23</t>
-  </si>
-  <si>
-    <t>≥8 (±)</t>
-  </si>
-  <si>
-    <t>&gt;15 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
-    <t>Sensor Depth or Water Level</t>
-  </si>
-  <si>
-    <t>feet</t>
-  </si>
-  <si>
-    <t>&gt; 10^5 or &lt; -1</t>
-  </si>
-  <si>
-    <t>≥5  (±)</t>
-  </si>
-  <si>
-    <t>&gt;60 consecutive measurements within 0 units of one another</t>
-  </si>
-  <si>
-    <t>&gt; 1000 or &lt; 1</t>
-  </si>
-  <si>
-    <t>≥3  (±)</t>
-  </si>
-  <si>
-    <t>&gt;20 consecutive measurements within 0 units of one another</t>
-  </si>
-  <si>
-    <t>Discharge</t>
-  </si>
-  <si>
-    <t>ft3/s</t>
-  </si>
-  <si>
-    <t>≥10^4  (±)</t>
-  </si>
-  <si>
-    <t>&gt; 60 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
-    <t>≥10^3  (±)</t>
-  </si>
-  <si>
-    <t>&gt; 30 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
-    <t>Dissolved oxygen</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>&gt; 20 or &lt; 1</t>
-  </si>
-  <si>
-    <t>&gt;= 10 (±)</t>
-  </si>
-  <si>
-    <t>&gt; 18 or &lt; 2</t>
-  </si>
-  <si>
-    <t>&gt;= 5 (±)</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>uS/cm</t>
-  </si>
-  <si>
-    <t>&gt; 1500 or &lt; 10</t>
-  </si>
-  <si>
-    <t>&gt;1200 or &lt; 20</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>&gt; 12 or &lt; 3</t>
-  </si>
-  <si>
-    <t>&gt; 11 or &lt; 4</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>&gt; 1000 or &lt; -1</t>
-  </si>
-  <si>
-    <t>Pressure, Water</t>
-  </si>
-  <si>
-    <t>psi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;17  or &lt;13 </t>
-  </si>
-  <si>
-    <t>≥0.7  (±)</t>
-  </si>
-  <si>
-    <t>&gt;15 consecutive measurements within 0.001 units of one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;16.8  or &lt;13.5 </t>
-  </si>
-  <si>
-    <t>≥0.5  (±)</t>
-  </si>
-  <si>
-    <t>&gt;10 consecutive measurements within 0.001 units of one another</t>
-  </si>
-  <si>
-    <t>Barometric Pressure, Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;15  or &lt;13 </t>
-  </si>
-  <si>
-    <t>≥0.25  (±)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;14.8  or &lt;13 </t>
-  </si>
-  <si>
-    <t>≥0.15  (±)</t>
-  </si>
-  <si>
-    <t>Chlorophyll a</t>
-  </si>
-  <si>
-    <t>g/cm3</t>
-  </si>
-  <si>
-    <t>File name</t>
-  </si>
-  <si>
-    <t>Waterbody type</t>
-  </si>
-  <si>
-    <t>Parameter(s)</t>
-  </si>
-  <si>
-    <t>Sensor type</t>
-  </si>
-  <si>
-    <t>Data description</t>
-  </si>
-  <si>
-    <t>Hunting_AWTemp</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>Water and air temperature</t>
-  </si>
-  <si>
-    <t>Onset HOBO U22 (Pro v2)</t>
-  </si>
-  <si>
-    <t>Air and water temperature were collected with separate sensors but brought together into one file in HOBOware</t>
-  </si>
-  <si>
-    <t>QB283_AWTempWaterLevel</t>
-  </si>
-  <si>
-    <t>Water and air temperature, water and air pressure, water level</t>
-  </si>
-  <si>
-    <t>Onset HOBO U20</t>
-  </si>
-  <si>
-    <t>Data from two non vented pressure transducers (one on land, one in the water) were brought together in HOBOware Pro to generate water level</t>
-  </si>
-  <si>
-    <t>RUSS_WTempMultiDepth</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Water temperature</t>
-  </si>
-  <si>
-    <t>Temperature sensors were deployed throughout the water column (at 1-m intervals). This dataset include temperature data for multiple depths</t>
-  </si>
-  <si>
-    <t>RUSS_DO</t>
-  </si>
-  <si>
-    <t>Onset HOBO U26</t>
-  </si>
-  <si>
-    <t>DO sensor data for a single depth</t>
-  </si>
-  <si>
-    <t>HOBOware Reformat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This function will automatically reformat CSV files for HOBO sensors so that they are ready to run through the QC function. In order for this function to work, users must follow specific formatting instructions when they export CSV files from HOBOware. </t>
-  </si>
-  <si>
-    <t>Run the three main functions: QCRaw (which generates QC reports), Aggregate (which merges QC'd data files from the same site and different time periods together) and SummaryStats (which generates summary statistics and time series plots). Includes instructions and examples of QC reports, aggregated data files and SummaryStats outputs.</t>
-  </si>
-  <si>
-    <t>Repository for test data files. There are two sets of folders: one with test data that can be run through the Shiny app or R package; the other with complete sets of outputs for each of the Test datasets so that the user can verify that the outputs that they generated during their test run(s) were complete.</t>
-  </si>
-  <si>
-    <t>ContDataQC is continually being improved; this page provides a status report and list of items that will be added as resources permit</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -883,7 +883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +921,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -934,26 +954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,18 +1245,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,8 +1267,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
@@ -1268,8 +1276,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1279,8 +1287,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1288,8 +1296,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1297,17 +1305,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1317,8 +1325,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1326,19 +1334,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1364,16 +1372,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1382,13 +1390,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1400,125 +1408,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1543,196 +1551,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="B18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="24" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="24" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="25" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1762,43 +1770,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1826,492 +1834,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="21" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="B6" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="21" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="21" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="B8" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="22" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="B10" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="E11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="F17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="F23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2322,18 +2342,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2357,88 +2365,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{510F0A4E-DF69-422F-8D6F-F3A70589B038}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B93C7-747E-42AB-9689-CAB3DE8D8D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <sheet name="QCThresh_Table3a2" sheetId="5" r:id="rId5"/>
     <sheet name="TestData_Table7" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
   <si>
     <t>Main tab</t>
   </si>
@@ -41,9 +50,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Overview</t>
-  </si>
-  <si>
     <t>Purpose, funding, main uses to date</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
     <t>Instructions on how to evaluate and adjust QC test thresholds</t>
   </si>
   <si>
-    <t>Main functions</t>
-  </si>
-  <si>
     <t>Run functions</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
     <t>Summary table showing what parameters are in the uploaded files; user should ensure all the desired parameters are present</t>
   </si>
   <si>
-    <t>Download USGS gage data</t>
-  </si>
-  <si>
     <t>Download USGS gage data for desired sites and time periods</t>
   </si>
   <si>
@@ -110,9 +110,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>FAQ</t>
-  </si>
-  <si>
     <t>Frequently asked questions</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t xml:space="preserve">Data0_Original </t>
   </si>
   <si>
-    <t>For files that are exported out of the sensor software (like HOBOWare) that need to be reformatted before they can be run through the ContDataQC R package.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data1_RAW </t>
   </si>
   <si>
@@ -155,40 +149,22 @@
     <t xml:space="preserve">FieldForms </t>
   </si>
   <si>
-    <t>Observations from site visits are very important for the QC process as they can provide clues as to why erroneous measurements or changes may have occurred (e.g., had to move sensor, sensor out of water, sensor buried in sediment, vandalism).</t>
-  </si>
-  <si>
     <t xml:space="preserve">in_situ </t>
   </si>
   <si>
     <t>orig</t>
   </si>
   <si>
-    <t>If you are overrun with raw files that are not named consistently and are poorly organized (for example, sometimes files are saved multiple times with different names and in different folders), RMN partners have found it helpful to put all the raw files for a site into one folder, inventory what they have, and then sort them into the appropriate folders.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photos </t>
   </si>
   <si>
-    <t>RMN protocols call for taking photos from the same locations during each site visit. Photographs are important for relocating the sensors and documenting changes to the monitoring location.</t>
-  </si>
-  <si>
     <t xml:space="preserve">R_ConfigurationFiles </t>
   </si>
   <si>
-    <t>Creating a customized configuration file (or files) for a site allows you to adjust QC test thresholds, make changes to units and plot labels, and more. Under the 'QC Thresholds' tab, you can upload a customized configuration file. If the file is stored in this folder, it will be easy to find. The customized file needs to be uploaded before running the QC function, otherwise the default settings will be used.</t>
-  </si>
-  <si>
     <t>SensorFile</t>
   </si>
   <si>
-    <t xml:space="preserve">We recommend retaining original sensor files in case you need to go back and regenerate certain data (e.g., with HOBO sensors, sometimes people go back and rerun sensor depth with reference water level measurements). In some situations, it may be helpful to add subfolders for each sensor type (for example, with lakes, there may be many temperature files mixed in with DO and water level files; in these cases, it may be easier to find files if you create subfolders for temperature, DO and water level). </t>
-  </si>
-  <si>
     <t>USGSgage</t>
-  </si>
-  <si>
-    <t>If there is a nearby, representative USGS gage, we recommend comparing your sensor data to the USGS gage data as an additional QC check.</t>
   </si>
   <si>
     <t>WxStation</t>
@@ -310,27 +286,18 @@
     <t>Air LoggerID</t>
   </si>
   <si>
-    <t>unique identifier (e.g., serial number)</t>
-  </si>
-  <si>
     <t>Water LoggerID</t>
   </si>
   <si>
     <t>Water RowID</t>
   </si>
   <si>
-    <t>sequential number (1=first measurement; largest number = last measurement)</t>
-  </si>
-  <si>
     <t>Air RowID</t>
   </si>
   <si>
     <t>Discrete Water Temp C</t>
   </si>
   <si>
-    <t>Discrete (in situ) measurements can be entered into the row of the CSV file where the date/time of the sensor measurement most closely matches with the date/time of the field measurement; the data point(s) will be overlaid onto the time series plot in the QC report so that the user can visually check the correspondence between the two. Discrete entries can be made for any of the parameters listed above (not just temperature and water level)</t>
-  </si>
-  <si>
     <t>Discrete Air Temp C</t>
   </si>
   <si>
@@ -655,60 +622,65 @@
     <t>Repository for test data files. There are two sets of folders: one with test data that can be run through the Shiny app or R package; the other with complete sets of outputs for each of the Test datasets so that the user can verify that the outputs that they generated during their test run(s) were complete.</t>
   </si>
   <si>
-    <t>ContDataQC is continually being improved; this page provides a status report and list of items that will be added as resources permit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An important QC check (which we call an 'accuracy check') involves comparing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in situ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> measurements taken during site visits to the closest sensor measurement(s). We ask that RMN partners keep an accuracy check worksheet in this folder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[(click here to download an example worksheet).](https://github.com/Blocktt/ShinyAppDocuments/tree/main/ContDataQC/Organizing_Files)</t>
-    </r>
+    <t>About ContDataQC</t>
+  </si>
+  <si>
+    <t>Frequent Questions</t>
+  </si>
+  <si>
+    <t>Download USGS Gage Data</t>
+  </si>
+  <si>
+    <t>Main Functions</t>
+  </si>
+  <si>
+    <t>For .csv files that are exported out of the sensor software (like HOBOWare) that need to be reformatted before they can be run through the QC function.</t>
+  </si>
+  <si>
+    <t>Observations from site visits are very important for the QC process as they can provide clues as to why erroneous measurements or changes may have occurred (e.g., sensor movement, sensor out of water, sensor buried in sediment, vandalism).</t>
+  </si>
+  <si>
+    <t>An important QC check (which we call an ‘accuracy check’) involves comparing in situ measurements taken during site visits to the closest sensor measurement(s). We recommend keeping an accuracy check worksheet in this folder (click here to download an example worksheet).</t>
+  </si>
+  <si>
+    <t>If you are overrun with raw files that are not named consistently and are poorly organized (for example, sometimes files are saved multiple times with different names and in different folders), it may be helpful to put all the raw files for a site into one folder, inventory them, and then sort them into the appropriate folders.</t>
+  </si>
+  <si>
+    <t>We recommend taking photos from the same locations during each site visit. Photographs are important for relocating the sensors and documenting changes to the monitoring location.</t>
+  </si>
+  <si>
+    <t>Creating a customized configuration file (or files) for a site allows users to adjust QC test thresholds, make changes to units and more. The customized file needs to be uploaded before running the QC function, otherwise the default settings will be used.</t>
+  </si>
+  <si>
+    <t>We recommend retaining original sensor files in case you need to go back and regenerate certain data. In some situations, it may be helpful to add subfolders for each sensor type (for example, with lakes, there may be many temperature files mixed in with DO and water level files; in these cases, it may be easier to find files if you create subfolders for temperature, DO and water level).</t>
+  </si>
+  <si>
+    <t>If there is a nearby, representative USGS gage, we recommend comparing sensor hydrologic data to the USGS gage data as an additional QC check.</t>
+  </si>
+  <si>
+    <t>Salinity ppt</t>
+  </si>
+  <si>
+    <t>unique identifier (e.g., serial number) for sensor deployed on land</t>
+  </si>
+  <si>
+    <t>unique sensor identifier (e.g., serial number) for sensor deployed in the water</t>
+  </si>
+  <si>
+    <t>sequential record number (1=first measurement; largest number = last measurement) for sensor deployed in the water</t>
+  </si>
+  <si>
+    <t>sequential record number (1=first measurement; largest number = last measurement) for sensor deployed on land</t>
+  </si>
+  <si>
+    <t>Discrete (in situ) measurements can be entered into the row of the CSV file where the date/time of the sensor measurement most closely matches with the date/time of the in situ measurement; the data point(s) will be overlaid onto the time series plot in the QC report so that the user can visually check the correspondence between the two. Discrete entries can be made for any of the parameters listed above (not just the Water Temp C example shown here)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,13 +707,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -857,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -909,13 +874,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -943,6 +908,18 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -953,15 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,17 +1211,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,134 +1237,125 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="C10" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1408,126 +1367,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>201</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1537,219 +1496,228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="8" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" t="s">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" t="s">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" t="s">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" t="s">
+      <c r="B19" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" t="s">
+      <c r="C19" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" t="s">
+      <c r="C20" s="33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" t="s">
+      <c r="C21" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C22" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" t="s">
+      <c r="C23" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="31"/>
+      <c r="C25" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1771,7 +1739,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
@@ -1779,34 +1747,34 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1835,487 +1803,487 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="17" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="B4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="D4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="F4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="18" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="B6" s="37" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="18" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="F7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="B8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="C8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="18" t="s">
+      <c r="F8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="19" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="F17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="18" t="s">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="E22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="E23" s="19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2366,87 +2334,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B93C7-747E-42AB-9689-CAB3DE8D8D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFEBCFF-E0B6-4275-9AED-8176E2A52A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t xml:space="preserve">Fail </t>
   </si>
   <si>
-    <t>&gt;30 or &lt;-2</t>
-  </si>
-  <si>
     <t>≥1.5 (±)</t>
   </si>
   <si>
@@ -376,18 +373,6 @@
     <t>Suspect</t>
   </si>
   <si>
-    <t>&gt;25 or &lt;-0.1</t>
-  </si>
-  <si>
-    <t>≥1.0 (±)</t>
-  </si>
-  <si>
-    <t>≥3 stdev within 25 hrs</t>
-  </si>
-  <si>
-    <t>&gt;20 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
     <t>Temperature, Air</t>
   </si>
   <si>
@@ -406,9 +391,6 @@
     <t>≥8 (±)</t>
   </si>
   <si>
-    <t>&gt;15 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
     <t>Sensor Depth or Water Level</t>
   </si>
   <si>
@@ -430,9 +412,6 @@
     <t>≥3  (±)</t>
   </si>
   <si>
-    <t>&gt;20 consecutive measurements within 0 units of one another</t>
-  </si>
-  <si>
     <t>Discharge</t>
   </si>
   <si>
@@ -457,15 +436,9 @@
     <t>mg/L</t>
   </si>
   <si>
-    <t>&gt; 20 or &lt; 1</t>
-  </si>
-  <si>
     <t>&gt;= 10 (±)</t>
   </si>
   <si>
-    <t>&gt; 18 or &lt; 2</t>
-  </si>
-  <si>
     <t>&gt;= 5 (±)</t>
   </si>
   <si>
@@ -674,6 +647,33 @@
   </si>
   <si>
     <t>Discrete (in situ) measurements can be entered into the row of the CSV file where the date/time of the sensor measurement most closely matches with the date/time of the in situ measurement; the data point(s) will be overlaid onto the time series plot in the QC report so that the user can visually check the correspondence between the two. Discrete entries can be made for any of the parameters listed above (not just the Water Temp C example shown here)</t>
+  </si>
+  <si>
+    <t>&gt;30 or &lt;-1</t>
+  </si>
+  <si>
+    <t>≥2.0 (±)</t>
+  </si>
+  <si>
+    <t>&gt;100 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>&gt;60 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>≥6 stdev within 25 hrs</t>
+  </si>
+  <si>
+    <t>&gt;25 or &lt;-0.5</t>
+  </si>
+  <si>
+    <t>&gt; 18 or &lt; 1</t>
+  </si>
+  <si>
+    <t>&gt; 16 or &lt; 2</t>
+  </si>
+  <si>
+    <t>&gt;30 consecutive measurements within 0 units of one another</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +734,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,18 +877,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -925,11 +919,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,7 +1227,7 @@
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,8 +1242,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>186</v>
+      <c r="A2" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1246,7 +1252,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1254,7 +1260,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1265,7 +1271,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1280,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1283,16 +1289,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1303,7 +1309,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1312,18 +1318,18 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>189</v>
+      <c r="A10" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -1355,7 +1361,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1374,14 +1380,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1390,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,15 +1436,15 @@
         <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>192</v>
+      <c r="B8" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1446,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1454,7 +1460,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1462,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1470,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1478,7 +1484,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1498,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -1522,7 +1528,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1533,7 +1539,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
@@ -1542,7 +1548,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
@@ -1550,13 +1556,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="30"/>
       <c r="B5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="30"/>
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1565,7 +1571,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="30"/>
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -1574,7 +1580,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="30"/>
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -1583,7 +1589,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="30"/>
       <c r="B9" t="s">
         <v>60</v>
       </c>
@@ -1592,25 +1598,25 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="30"/>
       <c r="B10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="30"/>
       <c r="B11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="30"/>
       <c r="B12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="30"/>
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -1619,7 +1625,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="30"/>
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -1628,89 +1634,89 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="30"/>
       <c r="B15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="30"/>
       <c r="B16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="30"/>
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="30"/>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>199</v>
+      <c r="C19" s="29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>200</v>
+      <c r="C20" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>201</v>
+      <c r="C21" s="29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>202</v>
+      <c r="C22" s="29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>203</v>
+      <c r="C23" s="31" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1786,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83F796-74F9-475E-BD35-3C720D0E40EF}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="A4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,481 +1831,469 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F3" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G4" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="D7" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D8" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="E8" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="E9" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="F16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="18" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F17" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="18" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>128</v>
+      <c r="F23" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2310,6 +2304,18 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2333,88 +2339,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>165</v>
+      <c r="A1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFEBCFF-E0B6-4275-9AED-8176E2A52A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7289E8-B385-4BA2-9588-BC7A8003509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>WxStation</t>
   </si>
   <si>
-    <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.</t>
-  </si>
-  <si>
     <t>Column headings</t>
   </si>
   <si>
@@ -674,6 +671,9 @@
   </si>
   <si>
     <t>&gt;30 consecutive measurements within 0 units of one another</t>
+  </si>
+  <si>
+    <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.  Modeled daily air temperature and precipitation data are also available from Daymet (https://daymet.ornl.gov/) and PRISM (https://prism.oregonstate.edu/).</t>
   </si>
 </sst>
 </file>
@@ -913,6 +913,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -924,18 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,7 +1243,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1291,10 +1291,10 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,13 +1319,13 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1484,15 +1484,15 @@
         <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1521,202 +1521,202 @@
         <v>24</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" t="s">
+      <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C22" s="29" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="8" t="s">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C23" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1745,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
@@ -1753,34 +1753,34 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83F796-74F9-475E-BD35-3C720D0E40EF}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="A4:G5"/>
     </sheetView>
   </sheetViews>
@@ -1809,491 +1809,503 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="F3" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="34" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="G10" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="G11" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="36" t="s">
+      <c r="D12" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="G13" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="D15" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="E16" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="F16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="37" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="F17" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="37" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="35" t="s">
+      <c r="F23" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2304,18 +2316,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2340,87 +2340,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7289E8-B385-4BA2-9588-BC7A8003509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF33AAE-FEB7-4299-B98C-8173D9492EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>Date Time</t>
   </si>
   <si>
-    <t>“Date Time” (one field) OR “Date” AND “Time” (in 2 separate fields) OR all 3 (in 3 fields); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
-  </si>
-  <si>
     <t>As available</t>
   </si>
   <si>
@@ -674,6 +671,9 @@
   </si>
   <si>
     <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.  Modeled daily air temperature and precipitation data are also available from Daymet (https://daymet.ornl.gov/) and PRISM (https://prism.oregonstate.edu/).</t>
+  </si>
+  <si>
+    <t>“Date Time” (one field); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1291,10 +1291,10 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,13 +1319,13 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1396,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1504,9 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,177 +1544,177 @@
         <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="C19" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="35"/>
     </row>
@@ -1745,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
@@ -1753,34 +1753,34 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1809,503 +1809,491 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37"/>
       <c r="C3" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="37"/>
       <c r="C5" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="F5" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="F6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="37"/>
       <c r="C7" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>114</v>
-      </c>
       <c r="F7" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="F8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="F10" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>127</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="C14" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>131</v>
-      </c>
       <c r="E14" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>134</v>
-      </c>
       <c r="C16" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="E18" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="F18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="F19" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="E20" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>146</v>
-      </c>
       <c r="F20" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>148</v>
-      </c>
       <c r="F21" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>150</v>
-      </c>
       <c r="C22" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2316,6 +2304,18 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2340,87 +2340,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF33AAE-FEB7-4299-B98C-8173D9492EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9C5701-B8CF-40DF-95F0-42004F875D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,6 @@
     <t>Observations from site visits are very important for the QC process as they can provide clues as to why erroneous measurements or changes may have occurred (e.g., sensor movement, sensor out of water, sensor buried in sediment, vandalism).</t>
   </si>
   <si>
-    <t>An important QC check (which we call an ‘accuracy check’) involves comparing in situ measurements taken during site visits to the closest sensor measurement(s). We recommend keeping an accuracy check worksheet in this folder (click here to download an example worksheet).</t>
-  </si>
-  <si>
     <t>If you are overrun with raw files that are not named consistently and are poorly organized (for example, sometimes files are saved multiple times with different names and in different folders), it may be helpful to put all the raw files for a site into one folder, inventory them, and then sort them into the appropriate folders.</t>
   </si>
   <si>
@@ -674,6 +671,9 @@
   </si>
   <si>
     <t>“Date Time” (one field); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
+  </si>
+  <si>
+    <t>An important QC check (which we call an ‘accuracy check’) involves comparing in situ measurements taken during site visits to the closest sensor measurement(s). We recommend keeping an accuracy check worksheet in this folder (click link at bottom to download an example worksheet).</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -1544,7 +1544,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>74</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,16 +1841,16 @@
         <v>96</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>194</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>100</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>98</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>99</v>
@@ -1950,10 +1950,10 @@
         <v>113</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>118</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>119</v>
@@ -2009,7 +2009,7 @@
         <v>102</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>122</v>
@@ -2028,13 +2028,13 @@
         <v>100</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>119</v>
@@ -2076,7 +2076,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>119</v>
@@ -2118,7 +2118,7 @@
         <v>123</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>119</v>
@@ -2160,7 +2160,7 @@
         <v>118</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>119</v>
@@ -2202,7 +2202,7 @@
         <v>141</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>142</v>
@@ -2244,7 +2244,7 @@
         <v>147</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>142</v>
@@ -2286,7 +2286,7 @@
         <v>118</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>119</v>
@@ -2294,6 +2294,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2304,18 +2316,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9C5701-B8CF-40DF-95F0-42004F875D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45345AC0-F15D-416B-974D-DE4D1AC2E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32580" yWindow="3195" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
-    <sheet name="DataPrep_Table2a" sheetId="2" r:id="rId2"/>
-    <sheet name="DataPrep_Table2c" sheetId="3" r:id="rId3"/>
-    <sheet name="QCThresh_Table3a1" sheetId="4" r:id="rId4"/>
-    <sheet name="QCThresh_Table3a2" sheetId="5" r:id="rId5"/>
-    <sheet name="TestData_Table7" sheetId="6" r:id="rId6"/>
+    <sheet name="About_Overview" sheetId="8" r:id="rId2"/>
+    <sheet name="DataPrep_Table2a" sheetId="2" r:id="rId3"/>
+    <sheet name="DataPrep_Table2c" sheetId="3" r:id="rId4"/>
+    <sheet name="QCThresh_Table3a1" sheetId="4" r:id="rId5"/>
+    <sheet name="QCThresh_Table3a2" sheetId="5" r:id="rId6"/>
+    <sheet name="TestData_Table7" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="226">
   <si>
     <t>Main tab</t>
   </si>
@@ -674,6 +675,72 @@
   </si>
   <si>
     <t>An important QC check (which we call an ‘accuracy check’) involves comparing in situ measurements taken during site visits to the closest sensor measurement(s). We recommend keeping an accuracy check worksheet in this folder (click link at bottom to download an example worksheet).</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Main Tab</t>
+  </si>
+  <si>
+    <t>Subtab(s)</t>
+  </si>
+  <si>
+    <t>Organize sensor files</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Organizing Files</t>
+  </si>
+  <si>
+    <t>Name sensor files</t>
+  </si>
+  <si>
+    <t>Naming Files</t>
+  </si>
+  <si>
+    <t>Format sensor files</t>
+  </si>
+  <si>
+    <t>Formatting Files, Automated Reformatting</t>
+  </si>
+  <si>
+    <t>Evaluate QC test thresholds</t>
+  </si>
+  <si>
+    <t>QC Thresholds - Evaluate Thresholds</t>
+  </si>
+  <si>
+    <t>Customize thresholds if necessary</t>
+  </si>
+  <si>
+    <t>QC Thresholds - Edit Thresholds</t>
+  </si>
+  <si>
+    <t>Save and upload customized configuration file (if needed)</t>
+  </si>
+  <si>
+    <t>QC Thresholds - Upload Custom Thresholds</t>
+  </si>
+  <si>
+    <t>Generate QC reports; review results; remove or correct data points as needed</t>
+  </si>
+  <si>
+    <t>Run Functions - QC Raw Data</t>
+  </si>
+  <si>
+    <t>Combine QC'd data files from the same site/different time periods into a single file</t>
+  </si>
+  <si>
+    <t>Run Functions - Aggregate QC’d data</t>
+  </si>
+  <si>
+    <t>Generate summary and visualization outputs</t>
+  </si>
+  <si>
+    <t>Run Functions - Summary Statistics</t>
   </si>
 </sst>
 </file>
@@ -828,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -936,6 +1003,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,10 +1443,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E5C6F-496E-47C1-A348-6B0C72073D56}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1500,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53014024-6392-4EEB-A63C-6464C92A0508}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1729,7 +1932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7288373-689A-4333-888E-9BEE47116881}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1788,7 +1991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83F796-74F9-475E-BD35-3C720D0E40EF}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -2294,18 +2497,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2316,12 +2507,24 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3037767D-11B9-4D55-B076-80CDB032F77C}">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45345AC0-F15D-416B-974D-DE4D1AC2E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6A08C-5DAE-43A1-B06D-3DA7DCA7CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="3195" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -668,9 +668,6 @@
     <t>&gt;30 consecutive measurements within 0 units of one another</t>
   </si>
   <si>
-    <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.  Modeled daily air temperature and precipitation data are also available from Daymet (https://daymet.ornl.gov/) and PRISM (https://prism.oregonstate.edu/).</t>
-  </si>
-  <si>
     <t>“Date Time” (one field); prefer 24H time (military); YYYY-MM-DD is recommended but not required</t>
   </si>
   <si>
@@ -741,6 +738,9 @@
   </si>
   <si>
     <t>Run Functions - Summary Statistics</t>
+  </si>
+  <si>
+    <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.  Modeled daily air temperature and precipitation data are also available from Daymet and PRISM.</t>
   </si>
 </sst>
 </file>
@@ -992,6 +992,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1003,12 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E5C6F-496E-47C1-A348-6B0C72073D56}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1458,113 +1458,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>214</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>218</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>220</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>222</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>224</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>225</v>
+      <c r="C10" s="35" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1742,16 +1742,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -1759,13 +1759,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1801,25 +1801,25 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1837,31 +1837,31 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="8" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
@@ -1899,27 +1899,27 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="37" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2034,10 +2034,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="30" t="s">
         <v>100</v>
       </c>
@@ -2076,10 +2076,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -2099,8 +2099,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="30" t="s">
         <v>100</v>
       </c>
@@ -2118,10 +2118,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -2141,8 +2141,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -2160,10 +2160,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -2183,8 +2183,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="30" t="s">
         <v>100</v>
       </c>
@@ -2202,10 +2202,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="39" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -2225,8 +2225,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="30" t="s">
         <v>100</v>
       </c>
@@ -2244,10 +2244,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -2267,8 +2267,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="30" t="s">
         <v>100</v>
       </c>
@@ -2286,10 +2286,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="39" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -2309,8 +2309,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="30" t="s">
         <v>100</v>
       </c>
@@ -2328,10 +2328,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -2370,10 +2370,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2393,8 +2393,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="30" t="s">
         <v>100</v>
       </c>
@@ -2412,10 +2412,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -2435,8 +2435,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="30" t="s">
         <v>100</v>
       </c>
@@ -2454,10 +2454,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="39" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -2477,8 +2477,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="30" t="s">
         <v>100</v>
       </c>
@@ -2497,6 +2497,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -2507,18 +2519,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/App_Information_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6A08C-5DAE-43A1-B06D-3DA7DCA7CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A3C2B-E4B9-417E-83A6-1220DCE87D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_Table1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="239">
   <si>
     <t>Main tab</t>
   </si>
@@ -741,6 +741,45 @@
   </si>
   <si>
     <t>If there is a nearby, representative weather station, we recommend comparing your sensor data to the weather station data as an additional QC check.  Modeled daily air temperature and precipitation data are also available from Daymet and PRISM.</t>
+  </si>
+  <si>
+    <t>&gt;= 4 (±)</t>
+  </si>
+  <si>
+    <t>&gt;= 2 (±)</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen, Adjusted</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen, percent saturation</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>&gt;120 or &lt; -1</t>
+  </si>
+  <si>
+    <t>&gt;100 or &lt; 0</t>
+  </si>
+  <si>
+    <t>&gt;= 25 (±)</t>
+  </si>
+  <si>
+    <t>&gt;= 3 (±)</t>
+  </si>
+  <si>
+    <t>&gt; 41 or &lt; 2</t>
+  </si>
+  <si>
+    <t>&gt; 37 or &lt; 3</t>
   </si>
 </sst>
 </file>
@@ -806,7 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -980,35 +1019,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,13 +1512,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1502,7 +1556,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>213</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1524,7 +1578,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>217</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1535,35 +1589,35 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="31" t="s">
         <v>219</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="31" t="s">
         <v>221</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="31" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>224</v>
       </c>
     </row>
@@ -1576,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD92CEC-B8C0-47B9-A332-3F2BD5709CC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1731,7 +1785,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1742,7 +1796,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
@@ -1751,7 +1805,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -1759,13 +1813,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -1774,7 +1828,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1783,7 +1837,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1792,7 +1846,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1801,25 +1855,25 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -1828,7 +1882,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1837,31 +1891,31 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="32"/>
       <c r="B16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="32"/>
       <c r="B17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1872,7 +1926,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
@@ -1881,7 +1935,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +1944,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
@@ -1899,27 +1953,27 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="33" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1993,10 +2047,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83F796-74F9-475E-BD35-3C720D0E40EF}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,491 +2091,623 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="38" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="38" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="38" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="38" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F15" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G16" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="30" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="D17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F17" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G17" s="39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="30" t="s">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="D18" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F18" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G18" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="30" t="s">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D19" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F19" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G19" s="39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="30" t="s">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="D20" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G20" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="30" t="s">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D21" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F28" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G29" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="28">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
